--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/SubLevelTotalsOutForm.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/SubLevelTotalsOutForm.xlsx
@@ -5,19 +5,19 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="السجل المالي العام للدوائر" sheetId="1" r:id="rId1"/>
+    <sheet name="السجل المالي العام للأقسام" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>السجل المالي العام للدوائر</t>
-  </si>
-  <si>
-    <t>الخدمات العامة</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>السجل المالي العام للأقسام</t>
+  </si>
+  <si>
+    <t>الصناعات الخفيفة</t>
   </si>
   <si>
     <t>إيرادات</t>
@@ -35,19 +35,16 @@
     <t>صادر إلى</t>
   </si>
   <si>
-    <t>أخرى</t>
+    <t>مجموع إيرادات القسم</t>
   </si>
   <si>
     <t xml:space="preserve">صادرات مباشرة </t>
   </si>
   <si>
-    <t>مجموع إيرادات الدائرة</t>
-  </si>
-  <si>
-    <t>مجموع (الصادرات المباشرة والمعلقة) للدائرة دون أفرع الدائرة</t>
-  </si>
-  <si>
-    <t>مدور بيد رئيس الدائرة</t>
+    <t>مجموع (الصادرات المباشرة والمعلقة) للقسم دون أفرع</t>
+  </si>
+  <si>
+    <t>مدور بيد رئيس القسم</t>
   </si>
 </sst>
 </file>
@@ -90,12 +87,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD6DCE4" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -218,13 +215,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="10" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="10" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
@@ -331,43 +328,37 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="9">
-        <v>8900</v>
+      <c r="B9" s="10">
+        <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="9">
-        <v>4000</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="9"/>
     </row>
     <row r="10">
-      <c r="B10" s="11">
-        <v>8900</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="10">
+        <v>840</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11">
-        <v>4000</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="G10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="14">
-        <v>4900</v>
+        <v>-840</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AssetManagement/AssetManagement/bin/Debug/Finance forms/SubLevelTotalsOutForm.xlsx
+++ b/AssetManagement/AssetManagement/bin/Debug/Finance forms/SubLevelTotalsOutForm.xlsx
@@ -5,19 +5,20 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="السجل المالي العام للأقسام" sheetId="1" r:id="rId1"/>
+    <sheet name="السجل المالي العام للدوائر" sheetId="1" r:id="rId1"/>
+    <sheet name="السجل المالي التفصيلي للدوائر" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>السجل المالي العام للأقسام</t>
-  </si>
-  <si>
-    <t>الصناعات الخفيفة</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>السجل المالي العام للدوائر</t>
+  </si>
+  <si>
+    <t>الإدارة</t>
   </si>
   <si>
     <t>إيرادات</t>
@@ -35,16 +36,79 @@
     <t>صادر إلى</t>
   </si>
   <si>
-    <t>مجموع إيرادات القسم</t>
+    <t>أخرى</t>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">مجموع (الصادرات المباشرة والمعلقة) للدائرة</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FFFF0000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> دون أفرع الدائرة</d:t>
+    </d:r>
+  </si>
+  <si>
+    <t>مجموع إيرادات الدائرة</t>
+  </si>
+  <si>
+    <t>مدور بيد رئيس الدائرة</t>
+  </si>
+  <si>
+    <t>الأنظمة</t>
+  </si>
+  <si>
+    <t>من المستوى الأعلى</t>
+  </si>
+  <si>
+    <t>صادرات معلقة</t>
+  </si>
+  <si>
+    <t>التصنيع</t>
+  </si>
+  <si>
+    <t>الزكاة والهبات</t>
   </si>
   <si>
     <t xml:space="preserve">صادرات مباشرة </t>
   </si>
   <si>
-    <t>مجموع (الصادرات المباشرة والمعلقة) للقسم دون أفرع</t>
-  </si>
-  <si>
-    <t>مدور بيد رئيس القسم</t>
+    <t>الخدمات العامة</t>
+  </si>
+  <si>
+    <t>الصناعة</t>
+  </si>
+  <si>
+    <t>وحدة المعلومات</t>
+  </si>
+  <si>
+    <t>الموارد البشرية</t>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">مجموع (الصادرات المباشرة فقط) للدائرة</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FFFF0000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> وتفرعاتها</d:t>
+    </d:r>
   </si>
 </sst>
 </file>
@@ -68,7 +132,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,12 +151,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E" tint="0"/>
+        <fgColor rgb="FFD6DCE4" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6DCE4" tint="0"/>
+        <fgColor rgb="FFA9D08E" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -100,8 +164,18 @@
         <fgColor rgb="FFE2EFDA" tint="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8E6AD" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6" tint="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,20 +234,6 @@
     </border>
     <border>
       <left style="dotted"/>
-      <right/>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="dotted"/>
       <top style="dotted"/>
       <bottom style="dotted"/>
@@ -209,22 +269,28 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="10" applyBorder="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="9" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -237,7 +303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1"/>
   </sheetViews>
@@ -328,36 +394,370 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="10">
-        <v>0</v>
+      <c r="B9" s="9">
+        <v>2700</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="11">
+        <v>2700</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="27" customHeight="1">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="9">
+        <v>15200</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="9">
+        <v>650</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9">
+        <v>950</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6300</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="11">
+        <v>16150</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9">
+        <v>5800</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="11">
+        <v>12750</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="9">
+        <v>8900</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="9">
+        <v>4000</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="11">
+        <v>8900</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="11">
+        <v>4000</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="12">
+        <v>0</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" ht="27" customHeight="1">
+      <c r="B41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="9">
+        <v>1120</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="9">
         <v>840</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="11">
+        <v>1120</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="11">
+        <v>840</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="E10" s="10">
-        <v>840</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="14">
-        <v>-840</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    </row>
+    <row r="47">
+      <c r="B47" s="12">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" ht="27" customHeight="1">
+      <c r="B52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="11">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="9">
+        <v>26000</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="E56" s="9">
+        <v>6500</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="E57" s="9">
+        <v>1055</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="E58" s="11">
+        <v>33555</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -365,7 +765,324 @@
   <mergeCells>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B6:G6"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="F58:G58"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="B2:G58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" rightToLeft="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="38" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="13">
+        <v>2700</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="27" customHeight="1">
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="13">
+        <v>16150</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="14">
+        <v>12750</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5800</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="27" customHeight="1">
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="13">
+        <v>8900</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="14">
+        <v>4000</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="16">
+        <v>4000</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="27" customHeight="1">
+      <c r="B42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="13">
+        <v>1120</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="14">
+        <v>840</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="15">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="16">
+        <v>840</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="27" customHeight="1">
+      <c r="B54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="14">
+        <v>33555</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="15">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="16">
+        <v>7555</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B54:G54"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
